--- a/OrbisGame/Container/Data/Waffen.xlsx
+++ b/OrbisGame/Container/Data/Waffen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BF4C72-6ECF-4645-9CF0-A62782C9F1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB229A56-C001-49AB-850B-8C297DA084D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8235" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="21" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Schwert" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="61">
   <si>
     <t>Typ</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>Handsand</t>
+  </si>
+  <si>
+    <t>Turmschild</t>
   </si>
 </sst>
 </file>
@@ -600,12 +603,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.15625" customWidth="1"/>
+    <col min="1" max="1" width="19.17578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -613,7 +616,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -621,7 +624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -629,7 +632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -637,7 +640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -645,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -653,7 +656,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -661,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -669,7 +672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -677,7 +680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -685,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -693,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -701,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -709,7 +712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -730,9 +733,9 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -740,7 +743,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -748,7 +751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -756,7 +759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -764,7 +767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -772,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -780,7 +783,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -788,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -796,7 +799,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -804,7 +807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -812,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -820,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -828,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -836,7 +839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -857,9 +860,9 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -867,7 +870,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -875,7 +878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -883,7 +886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -891,7 +894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -899,7 +902,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -907,7 +910,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -915,7 +918,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -923,7 +926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -931,7 +934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -939,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -947,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -955,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -963,7 +966,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -984,9 +987,9 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -994,7 +997,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1018,7 +1021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1074,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1111,9 +1114,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1121,7 +1124,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1137,7 +1140,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1145,7 +1148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1169,7 +1172,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1177,7 +1180,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1185,7 +1188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1201,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1209,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1217,7 +1220,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1238,9 +1241,9 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1272,7 +1275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1296,7 +1299,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1320,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1328,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1344,7 +1347,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1365,9 +1368,9 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1399,7 +1402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1415,7 +1418,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1455,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1463,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1492,9 +1495,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1502,7 +1505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1510,7 +1513,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1518,7 +1521,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1526,7 +1529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1534,7 +1537,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1542,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1574,7 +1577,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1590,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1598,7 +1601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1619,13 +1622,13 @@
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.15625" customWidth="1"/>
-    <col min="2" max="2" width="12.83984375" customWidth="1"/>
+    <col min="1" max="1" width="19.17578125" customWidth="1"/>
+    <col min="2" max="2" width="12.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1633,7 +1636,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1641,7 +1644,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1649,7 +1652,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1657,7 +1660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1665,7 +1668,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1673,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1689,7 +1692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1697,7 +1700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1705,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1713,7 +1716,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1721,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1729,7 +1732,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1750,9 +1753,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1760,7 +1763,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1768,7 +1771,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1776,7 +1779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1784,7 +1787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1792,7 +1795,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1800,7 +1803,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1808,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1824,7 +1827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1832,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1856,7 +1859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1878,12 +1881,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1891,7 +1894,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1899,7 +1902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1915,7 +1918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1931,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1939,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1947,7 +1950,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1955,7 +1958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1971,7 +1974,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1979,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1987,7 +1990,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2008,12 +2011,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.68359375" customWidth="1"/>
+    <col min="1" max="1" width="20.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2029,7 +2032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2045,7 +2048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2053,7 +2056,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2061,7 +2064,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2069,7 +2072,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2085,7 +2088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2093,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2101,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2138,12 +2141,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.68359375" customWidth="1"/>
+    <col min="1" max="1" width="17.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2151,7 +2154,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2159,7 +2162,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2167,7 +2170,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2175,7 +2178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2191,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2199,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2207,7 +2210,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2223,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2239,7 +2242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2247,7 +2250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2268,9 +2271,9 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2278,7 +2281,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2302,7 +2305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2310,7 +2313,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2318,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2326,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2334,7 +2337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2358,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2366,7 +2369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2374,7 +2377,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2391,16 +2394,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87ED2F8E-94AE-4F2F-AB7E-6B6A004FC599}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.15625" customWidth="1"/>
+    <col min="1" max="1" width="19.17578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2408,15 +2411,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2424,7 +2427,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2448,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2456,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2464,7 +2467,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2480,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2488,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2504,7 +2507,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2525,12 +2528,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.83984375" customWidth="1"/>
+    <col min="1" max="1" width="19.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2546,7 +2549,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2562,7 +2565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2570,7 +2573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2578,7 +2581,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2586,7 +2589,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2602,7 +2605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2610,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2618,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2626,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2634,7 +2637,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2642,7 +2645,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -2650,7 +2653,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2658,7 +2661,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -2680,12 +2683,12 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.83984375" customWidth="1"/>
+    <col min="1" max="1" width="19.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2701,7 +2704,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2709,7 +2712,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2717,7 +2720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2733,7 +2736,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2765,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2773,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2789,7 +2792,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2797,7 +2800,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -2805,7 +2808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2813,7 +2816,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -2834,12 +2837,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.83984375" customWidth="1"/>
+    <col min="1" max="1" width="19.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2855,7 +2858,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2863,7 +2866,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2871,7 +2874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2879,7 +2882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2887,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2895,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2903,7 +2906,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2911,7 +2914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2919,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2927,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2943,7 +2946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2951,7 +2954,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -2959,7 +2962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2967,7 +2970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -2988,12 +2991,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.83984375" customWidth="1"/>
+    <col min="1" max="1" width="19.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -3001,7 +3004,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3009,7 +3012,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3017,7 +3020,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3025,7 +3028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3033,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3041,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3049,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3057,7 +3060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3065,7 +3068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3073,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3081,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3089,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3097,7 +3100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -3105,7 +3108,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -3113,7 +3116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -3121,7 +3124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -3142,12 +3145,12 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.83984375" customWidth="1"/>
+    <col min="1" max="1" width="19.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -3155,7 +3158,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3163,7 +3166,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3171,7 +3174,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3179,7 +3182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3187,7 +3190,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3195,7 +3198,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3203,7 +3206,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3211,7 +3214,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3219,7 +3222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3227,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3235,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3243,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3251,7 +3254,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -3259,7 +3262,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -3267,7 +3270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -3275,7 +3278,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -3297,12 +3300,12 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.83984375" customWidth="1"/>
+    <col min="1" max="1" width="19.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -3310,7 +3313,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3318,7 +3321,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3326,7 +3329,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3334,7 +3337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3342,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3350,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3358,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3366,7 +3369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3374,7 +3377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3382,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3390,7 +3393,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3398,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3406,7 +3409,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -3414,7 +3417,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -3422,7 +3425,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -3430,7 +3433,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -3452,12 +3455,12 @@
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.83984375" customWidth="1"/>
+    <col min="1" max="1" width="19.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -3465,7 +3468,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3473,7 +3476,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3481,7 +3484,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3489,7 +3492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3505,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3513,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3521,7 +3524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3529,7 +3532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3537,7 +3540,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3545,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3553,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3561,7 +3564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -3569,7 +3572,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -3577,7 +3580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -3585,7 +3588,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -3607,12 +3610,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.15625" customWidth="1"/>
+    <col min="1" max="1" width="20.17578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -3620,7 +3623,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3628,7 +3631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3636,7 +3639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3644,7 +3647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3652,7 +3655,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3660,7 +3663,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3668,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3676,7 +3679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3684,7 +3687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3692,7 +3695,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3700,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3708,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3716,7 +3719,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -3737,12 +3740,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.41796875" customWidth="1"/>
+    <col min="1" max="1" width="16.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -3750,7 +3753,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3758,7 +3761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3766,7 +3769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3774,7 +3777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3782,7 +3785,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3790,7 +3793,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3798,7 +3801,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3806,7 +3809,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3814,7 +3817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3822,7 +3825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3830,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3838,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3846,7 +3849,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -3863,16 +3866,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EED0043-2153-412E-BBD5-F7ED819662E5}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -3883,7 +3886,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3891,7 +3894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3899,7 +3902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3907,7 +3910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3915,7 +3918,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3923,7 +3926,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3934,7 +3937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3942,7 +3945,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3958,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3966,7 +3969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3974,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3982,7 +3985,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -4003,12 +4006,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.83984375" customWidth="1"/>
+    <col min="1" max="1" width="20.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -4016,7 +4019,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4024,7 +4027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4032,7 +4035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4040,7 +4043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4048,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4056,7 +4059,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4064,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4072,7 +4075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4080,7 +4083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4088,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4096,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4104,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -4112,7 +4115,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -4133,9 +4136,9 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -4143,7 +4146,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4151,7 +4154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4159,7 +4162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4167,7 +4170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4175,7 +4178,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4183,7 +4186,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4191,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4199,7 +4202,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4207,7 +4210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4215,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4223,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4231,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -4239,7 +4242,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -4260,9 +4263,9 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -4270,7 +4273,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4278,7 +4281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4286,7 +4289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4294,7 +4297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4302,7 +4305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4310,7 +4313,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4318,7 +4321,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4326,7 +4329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4334,7 +4337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4342,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4350,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4358,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -4366,7 +4369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -4387,9 +4390,9 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -4397,7 +4400,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4405,7 +4408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4413,7 +4416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4421,7 +4424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4429,7 +4432,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4445,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4453,7 +4456,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4461,7 +4464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4469,7 +4472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4477,7 +4480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4485,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -4493,7 +4496,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>48</v>
       </c>

--- a/OrbisGame/Container/Data/Waffen.xlsx
+++ b/OrbisGame/Container/Data/Waffen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB229A56-C001-49AB-850B-8C297DA084D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB74ECE-FC72-4972-9971-C2A1AD3196A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="21" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="6" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Schwert" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Streitkolben" sheetId="3" r:id="rId4"/>
     <sheet name="Dolch" sheetId="12" r:id="rId5"/>
     <sheet name="Bogen" sheetId="5" r:id="rId6"/>
-    <sheet name="Armbrust" sheetId="6" r:id="rId7"/>
-    <sheet name="Muskete" sheetId="7" r:id="rId8"/>
-    <sheet name="Schleuder" sheetId="8" r:id="rId9"/>
+    <sheet name="Einhandarmbrust" sheetId="31" r:id="rId7"/>
+    <sheet name="Armbrust" sheetId="6" r:id="rId8"/>
+    <sheet name="Muskete" sheetId="7" r:id="rId9"/>
     <sheet name="Großschwert" sheetId="4" r:id="rId10"/>
     <sheet name="Großaxt" sheetId="10" r:id="rId11"/>
     <sheet name="Kriegshammer" sheetId="11" r:id="rId12"/>
@@ -35,13 +35,14 @@
     <sheet name="Leichter Schild" sheetId="19" r:id="rId20"/>
     <sheet name="Schild" sheetId="20" r:id="rId21"/>
     <sheet name="Turmschild" sheetId="21" r:id="rId22"/>
-    <sheet name="Wurfaxt" sheetId="26" r:id="rId23"/>
-    <sheet name="Wurfmesser" sheetId="23" r:id="rId24"/>
-    <sheet name="Bola" sheetId="24" r:id="rId25"/>
-    <sheet name="Schwere Bola" sheetId="25" r:id="rId26"/>
-    <sheet name="Pilum" sheetId="27" r:id="rId27"/>
-    <sheet name="Handsand" sheetId="29" r:id="rId28"/>
-    <sheet name="Stein" sheetId="28" r:id="rId29"/>
+    <sheet name="Schleuder" sheetId="8" r:id="rId23"/>
+    <sheet name="Wurfaxt" sheetId="26" r:id="rId24"/>
+    <sheet name="Wurfmesser" sheetId="23" r:id="rId25"/>
+    <sheet name="Bola" sheetId="24" r:id="rId26"/>
+    <sheet name="Schwere Bola" sheetId="25" r:id="rId27"/>
+    <sheet name="Pilum" sheetId="27" r:id="rId28"/>
+    <sheet name="Handsand" sheetId="29" r:id="rId29"/>
+    <sheet name="Stein" sheetId="28" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="62">
   <si>
     <t>Typ</t>
   </si>
@@ -244,6 +245,9 @@
   </si>
   <si>
     <t>Turmschild</t>
+  </si>
+  <si>
+    <t>Einhandarmbrust</t>
   </si>
 </sst>
 </file>
@@ -2394,7 +2398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87ED2F8E-94AE-4F2F-AB7E-6B6A004FC599}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2521,11 +2525,159 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1830845-6122-4F08-B917-C36013027DDE}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AF5DD0-7421-4FE9-973F-27A65B9FF438}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A17" sqref="A5:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2675,7 +2827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC1811D-D322-4063-85A9-1858F93CB672}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -2829,7 +2981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9ECFBF-C382-403B-B179-3E5C84026B38}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -2983,7 +3135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC69E7C-4A36-4026-AAA9-627EF6A8B254}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -3137,7 +3289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D50878-4907-4778-8490-2D8295CF29C2}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -3292,7 +3444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D6114A-6C32-4DF1-8D26-3A2EA5B3C580}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -3423,161 +3575,6 @@
       </c>
       <c r="B15">
         <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B1DEB4-6B1D-425D-BDCA-FC115096EC2C}">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="19.8203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
@@ -3732,6 +3729,161 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B1DEB4-6B1D-425D-BDCA-FC115096EC2C}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="19.8203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3910942-E332-4339-99DE-B12F26CD42C8}">
   <dimension ref="A1:B14"/>
@@ -4129,11 +4281,141 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E794300-3383-4EFB-9AD1-7E8739EA13EE}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="16.9375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA4670-742C-4871-BCD2-E6FA6AAE7CE2}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4175,7 +4457,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
@@ -4255,7 +4537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABD18F0-BFD3-42C5-B992-9BBCF36559D3}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -4380,131 +4662,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1830845-6122-4F08-B917-C36013027DDE}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/OrbisGame/Container/Data/Waffen.xlsx
+++ b/OrbisGame/Container/Data/Waffen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB74ECE-FC72-4972-9971-C2A1AD3196A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143D281F-8B25-4686-B9BE-39FD8115FE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="6" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Schwert" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="58">
   <si>
     <t>Typ</t>
   </si>
@@ -176,18 +176,6 @@
   </si>
   <si>
     <t>Metallkrallen</t>
-  </si>
-  <si>
-    <t>Referenz</t>
-  </si>
-  <si>
-    <t>Standardwert</t>
-  </si>
-  <si>
-    <t>Fernkampfwert</t>
-  </si>
-  <si>
-    <t>Großwaffenwert</t>
   </si>
   <si>
     <t>Leichter Schild</t>
@@ -601,23 +589,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D7D18B-70B8-4FDD-ABF1-1C94B30B1429}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.17578125" customWidth="1"/>
+    <col min="1" max="1" width="19.234375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -710,17 +698,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.2</v>
       </c>
     </row>
@@ -731,20 +711,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81027427-C090-4647-B551-B93E1186E71B}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -837,17 +817,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.2</v>
       </c>
     </row>
@@ -858,20 +830,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9439AB9-5F0F-463B-A478-6F2BBF75005C}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -964,17 +936,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.3</v>
       </c>
     </row>
@@ -985,20 +949,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2387C0A-4B90-4FE3-AD96-62BE4E332B1B}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -1091,17 +1055,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.4</v>
       </c>
     </row>
@@ -1112,20 +1068,20 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EE2E44-CDE2-427C-A3A7-899328A853C7}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -1141,7 +1097,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -1218,17 +1174,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>1.3</v>
       </c>
     </row>
@@ -1239,20 +1187,20 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B620CD1D-1128-4865-8FC5-9C37A2B4C161}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -1268,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -1345,17 +1293,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.7</v>
       </c>
     </row>
@@ -1366,20 +1306,20 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64249751-20BC-4911-A078-6C1529F2B09A}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -1395,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -1472,17 +1412,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.5</v>
       </c>
     </row>
@@ -1493,20 +1425,20 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005019A2-2BF6-4761-8C2B-4E637A930ABB}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -1599,17 +1531,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.1</v>
       </c>
     </row>
@@ -1620,24 +1544,24 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2506013A-8732-4C20-B9DC-BB91394723FF}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.17578125" customWidth="1"/>
-    <col min="2" max="2" width="12.8203125" customWidth="1"/>
+    <col min="1" max="1" width="19.234375" customWidth="1"/>
+    <col min="2" max="2" width="12.76171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -1730,17 +1654,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.1</v>
       </c>
     </row>
@@ -1751,20 +1667,20 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE5D771-CE0C-45C7-900C-48AF3EA98946}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -1857,17 +1773,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.1</v>
       </c>
     </row>
@@ -1879,23 +1787,23 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60FCBBA-218A-4F58-83D7-867B0EAA9796}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.5859375" customWidth="1"/>
+    <col min="1" max="1" width="17.52734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -1988,17 +1896,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>1</v>
       </c>
     </row>
@@ -2009,23 +1909,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68329C14-23BA-4C04-9BC0-63F19F4F7F52}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.703125" customWidth="1"/>
+    <col min="1" max="1" width="20.64453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -2118,17 +2018,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.7</v>
       </c>
     </row>
@@ -2139,23 +2031,23 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7AF08E-0057-4976-87F7-78B4F8771816}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.703125" customWidth="1"/>
+    <col min="1" max="1" width="17.64453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -2163,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -2171,7 +2063,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -2248,17 +2140,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.5</v>
       </c>
     </row>
@@ -2269,20 +2153,20 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEF8A7E-528B-4762-83A5-07184E03B9C9}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -2290,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -2298,7 +2182,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -2375,17 +2259,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.5</v>
       </c>
     </row>
@@ -2396,23 +2272,23 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87ED2F8E-94AE-4F2F-AB7E-6B6A004FC599}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.17578125" customWidth="1"/>
+    <col min="1" max="1" width="19.234375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -2420,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -2428,7 +2304,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -2505,17 +2381,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.3</v>
       </c>
     </row>
@@ -2526,20 +2394,20 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1830845-6122-4F08-B917-C36013027DDE}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -2555,7 +2423,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -2632,39 +2500,31 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.5</v>
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2674,23 +2534,23 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AF5DD0-7421-4FE9-973F-27A65B9FF438}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A5:B17"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.8203125" customWidth="1"/>
+    <col min="1" max="1" width="19.76171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -2698,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -2706,7 +2566,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -2783,41 +2643,33 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.5</v>
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B15">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
         <v>2</v>
       </c>
     </row>
@@ -2829,23 +2681,23 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC1811D-D322-4063-85A9-1858F93CB672}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.8203125" customWidth="1"/>
+    <col min="1" max="1" width="19.76171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -2853,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -2861,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -2938,41 +2790,33 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.5</v>
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
         <v>3</v>
       </c>
     </row>
@@ -2983,23 +2827,23 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9ECFBF-C382-403B-B179-3E5C84026B38}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.8203125" customWidth="1"/>
+    <col min="1" max="1" width="19.76171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -3007,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -3015,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -3092,23 +2936,23 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.5</v>
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -3116,17 +2960,9 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
         <v>1</v>
       </c>
     </row>
@@ -3137,23 +2973,23 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC69E7C-4A36-4026-AAA9-627EF6A8B254}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.8203125" customWidth="1"/>
+    <col min="1" max="1" width="19.76171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -3161,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -3169,7 +3005,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -3246,41 +3082,33 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.5</v>
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
         <v>1</v>
       </c>
     </row>
@@ -3291,23 +3119,23 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D50878-4907-4778-8490-2D8295CF29C2}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.8203125" customWidth="1"/>
+    <col min="1" max="1" width="19.76171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -3315,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -3323,7 +3151,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -3400,41 +3228,33 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.5</v>
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B15">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
         <v>1</v>
       </c>
     </row>
@@ -3446,23 +3266,23 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D6114A-6C32-4DF1-8D26-3A2EA5B3C580}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.8203125" customWidth="1"/>
+    <col min="1" max="1" width="19.76171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -3470,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -3478,7 +3298,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -3555,41 +3375,33 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.5</v>
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
         <v>1</v>
       </c>
     </row>
@@ -3601,23 +3413,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F75A0B6-E117-4EEE-9E50-A9C870D89D86}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.17578125" customWidth="1"/>
+    <col min="1" max="1" width="20.234375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -3710,17 +3522,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.3</v>
       </c>
     </row>
@@ -3731,23 +3535,23 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B1DEB4-6B1D-425D-BDCA-FC115096EC2C}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.8203125" customWidth="1"/>
+    <col min="1" max="1" width="19.76171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -3755,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -3763,7 +3567,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -3840,41 +3644,33 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.5</v>
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
         <v>1</v>
       </c>
     </row>
@@ -3886,10 +3682,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3910942-E332-4339-99DE-B12F26CD42C8}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3899,10 +3695,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.5">
@@ -3995,17 +3791,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.4</v>
       </c>
     </row>
@@ -4016,26 +3804,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EED0043-2153-412E-BBD5-F7ED819662E5}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.5859375" customWidth="1"/>
+    <col min="1" max="1" width="17.52734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
@@ -4131,18 +3919,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
-        <v>0.7</v>
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4152,23 +3932,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BFD3F3-BE1B-4209-93D0-821D0CBBA4E2}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.8203125" customWidth="1"/>
+    <col min="1" max="1" width="20.76171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -4261,17 +4041,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.05</v>
       </c>
     </row>
@@ -4282,23 +4054,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E794300-3383-4EFB-9AD1-7E8739EA13EE}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.9375" customWidth="1"/>
+    <col min="1" max="1" width="16.87890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -4306,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -4391,17 +4163,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.05</v>
       </c>
     </row>
@@ -4412,20 +4176,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA4670-742C-4871-BCD2-E6FA6AAE7CE2}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -4518,17 +4282,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.05</v>
       </c>
     </row>
@@ -4539,20 +4295,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABD18F0-BFD3-42C5-B992-9BBCF36559D3}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -4645,17 +4401,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.05</v>
       </c>
     </row>

--- a/OrbisGame/Container/Data/Waffen.xlsx
+++ b/OrbisGame/Container/Data/Waffen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143D281F-8B25-4686-B9BE-39FD8115FE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C09923-CA20-413E-90ED-090D3D32367B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="20" activeTab="26" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Schwert" sheetId="1" r:id="rId1"/>
@@ -32,14 +32,14 @@
     <sheet name="Faustmesser" sheetId="17" r:id="rId17"/>
     <sheet name="Metallkrallen" sheetId="18" r:id="rId18"/>
     <sheet name="Faust" sheetId="15" r:id="rId19"/>
-    <sheet name="Leichter Schild" sheetId="19" r:id="rId20"/>
+    <sheet name="LeichterSchild" sheetId="19" r:id="rId20"/>
     <sheet name="Schild" sheetId="20" r:id="rId21"/>
     <sheet name="Turmschild" sheetId="21" r:id="rId22"/>
     <sheet name="Schleuder" sheetId="8" r:id="rId23"/>
     <sheet name="Wurfaxt" sheetId="26" r:id="rId24"/>
     <sheet name="Wurfmesser" sheetId="23" r:id="rId25"/>
     <sheet name="Bola" sheetId="24" r:id="rId26"/>
-    <sheet name="Schwere Bola" sheetId="25" r:id="rId27"/>
+    <sheet name="SchwereBola" sheetId="25" r:id="rId27"/>
     <sheet name="Pilum" sheetId="27" r:id="rId28"/>
     <sheet name="Handsand" sheetId="29" r:id="rId29"/>
     <sheet name="Stein" sheetId="28" r:id="rId30"/>
@@ -595,12 +595,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.234375" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -608,7 +608,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -632,7 +632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -648,7 +648,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -664,7 +664,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -672,7 +672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -717,9 +717,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -727,7 +727,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -735,7 +735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -743,7 +743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -751,7 +751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -767,7 +767,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -783,7 +783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -791,7 +791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -836,9 +836,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -846,7 +846,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -854,7 +854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -862,7 +862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -870,7 +870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -878,7 +878,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -886,7 +886,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -902,7 +902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -910,7 +910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -955,9 +955,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -965,7 +965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -973,7 +973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -981,7 +981,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -989,7 +989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -997,7 +997,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1074,9 +1074,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1193,9 +1193,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1312,9 +1312,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1431,9 +1431,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1550,13 +1550,13 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.234375" customWidth="1"/>
-    <col min="2" max="2" width="12.76171875" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1673,9 +1673,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1793,12 +1793,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.52734375" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1915,12 +1915,12 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.64453125" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2037,12 +2037,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.64453125" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2159,9 +2159,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2278,12 +2278,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.234375" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2400,9 +2400,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2540,12 +2540,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.76171875" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2687,12 +2687,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.76171875" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2833,12 +2833,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.76171875" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2975,16 +2975,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC69E7C-4A36-4026-AAA9-627EF6A8B254}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.76171875" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -3125,12 +3125,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.76171875" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -3272,12 +3272,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.76171875" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -3419,12 +3419,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.234375" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3541,12 +3541,12 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.76171875" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -3688,12 +3688,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.41015625" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3806,16 +3806,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EED0043-2153-412E-BBD5-F7ED819662E5}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.52734375" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3938,12 +3938,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.76171875" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -4060,12 +4060,12 @@
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.87890625" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -4182,9 +4182,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -4301,9 +4301,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>

--- a/OrbisGame/Container/Data/Waffen.xlsx
+++ b/OrbisGame/Container/Data/Waffen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C09923-CA20-413E-90ED-090D3D32367B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A59596F-6C4D-4F69-99A7-8182883E2243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="20" activeTab="26" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="14" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Schwert" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <sheet name="Handsand" sheetId="29" r:id="rId29"/>
     <sheet name="Stein" sheetId="28" r:id="rId30"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1190,7 +1190,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1308,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64249751-20BC-4911-A078-6C1529F2B09A}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2975,7 +2975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC69E7C-4A36-4026-AAA9-627EF6A8B254}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>

--- a/OrbisGame/Container/Data/Waffen.xlsx
+++ b/OrbisGame/Container/Data/Waffen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ACBB50-BC41-4C27-ACF3-4964964CE2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D64F168-377B-41EF-A37E-C487BB083C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="107">
   <si>
     <t>Schwert</t>
   </si>
@@ -313,9 +313,6 @@
     <t>Schlag</t>
   </si>
   <si>
-    <t>LeichterSchild</t>
-  </si>
-  <si>
     <t>Giftbiss</t>
   </si>
   <si>
@@ -350,6 +347,15 @@
   </si>
   <si>
     <t>Verraetersende</t>
+  </si>
+  <si>
+    <t>Hraggstahl</t>
+  </si>
+  <si>
+    <t>Grundwaffe</t>
+  </si>
+  <si>
+    <t>Leichter Schild</t>
   </si>
 </sst>
 </file>
@@ -705,9 +711,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA4670-742C-4871-BCD2-E6FA6AAE7CE2}">
   <dimension ref="A1:AN23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,7 +765,7 @@
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P1" t="s">
         <v>30</v>
@@ -777,7 +783,7 @@
         <v>32</v>
       </c>
       <c r="U1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="V1" t="s">
         <v>36</v>
@@ -2846,7 +2852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121B175B-F00F-47F8-9A7F-F48C1C0BF04B}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
@@ -2897,16 +2903,16 @@
         <v>90</v>
       </c>
       <c r="N1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" t="s">
         <v>100</v>
       </c>
-      <c r="P1" t="s">
-        <v>101</v>
-      </c>
       <c r="Q1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,7 +2962,7 @@
         <v>43</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q2" t="s">
         <v>2</v>
@@ -3511,7 +3517,7 @@
         <v>60</v>
       </c>
       <c r="O17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P17" t="s">
         <v>60</v>
@@ -3797,44 +3803,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F88FE72-617A-43B5-8753-3AC72A1D934B}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C26" sqref="C26"/>
+      <selection pane="topRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3845,8 +3854,11 @@
       <c r="F2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3865,8 +3877,11 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3885,8 +3900,11 @@
       <c r="F4">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3905,8 +3923,11 @@
       <c r="F5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3925,8 +3946,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -3934,7 +3958,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3942,7 +3966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3961,8 +3985,11 @@
       <c r="F9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3981,8 +4008,11 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4001,8 +4031,11 @@
       <c r="F11">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4021,8 +4054,11 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4041,23 +4077,26 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4076,8 +4115,11 @@
       <c r="F17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -4094,10 +4136,13 @@
         <v>0</v>
       </c>
       <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4116,8 +4161,11 @@
       <c r="F19">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4136,8 +4184,11 @@
       <c r="F20">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4156,13 +4207,16 @@
       <c r="F21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4180,6 +4234,32 @@
       </c>
       <c r="F23">
         <v>10</v>
+      </c>
+      <c r="G23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/OrbisGame/Container/Data/Waffen.xlsx
+++ b/OrbisGame/Container/Data/Waffen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D64F168-377B-41EF-A37E-C487BB083C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B82339A-C792-4B32-B281-68E8ABF9B4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="109">
   <si>
     <t>Schwert</t>
   </si>
@@ -356,6 +356,12 @@
   </si>
   <si>
     <t>Leichter Schild</t>
+  </si>
+  <si>
+    <t>Fackel</t>
+  </si>
+  <si>
+    <t>Werkzeug</t>
   </si>
 </sst>
 </file>
@@ -709,19 +715,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA4670-742C-4871-BCD2-E6FA6AAE7CE2}">
-  <dimension ref="A1:AN23"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U2" sqref="U2"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -837,13 +843,16 @@
         <v>70</v>
       </c>
       <c r="AM1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN1" t="s">
         <v>72</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -959,13 +968,16 @@
         <v>64</v>
       </c>
       <c r="AM2" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AN2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1081,13 +1093,16 @@
         <v>4</v>
       </c>
       <c r="AM3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AN3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1203,13 +1218,16 @@
         <v>10</v>
       </c>
       <c r="AM4">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="AN4">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1325,13 +1343,16 @@
         <v>1</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1447,13 +1468,16 @@
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AN6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1469,11 +1493,11 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1513,11 +1537,11 @@
       <c r="AE8">
         <v>100</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1638,8 +1662,11 @@
       <c r="AN9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1755,13 +1782,16 @@
         <v>0</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AN10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1882,8 +1912,11 @@
       <c r="AN11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2004,8 +2037,11 @@
       <c r="AN12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2121,13 +2157,16 @@
         <v>0.2</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AN13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2156,7 +2195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2185,7 +2224,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2211,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2327,13 +2366,16 @@
         <v>61</v>
       </c>
       <c r="AM17" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AN17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2449,13 +2491,16 @@
         <v>0</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2570,14 +2615,17 @@
       <c r="AL19">
         <v>0</v>
       </c>
-      <c r="AM19" t="s">
-        <v>61</v>
+      <c r="AM19">
+        <v>50</v>
       </c>
       <c r="AN19" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2693,13 +2741,16 @@
         <v>0</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AN20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2815,31 +2866,34 @@
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>3</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>20</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>20</v>
       </c>
     </row>
@@ -2857,12 +2911,12 @@
       <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2915,7 +2969,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2968,7 +3022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3021,7 +3075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3074,7 +3128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3127,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3180,12 +3234,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3193,7 +3247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3246,7 +3300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3299,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3352,7 +3406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3405,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3458,22 +3512,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3526,7 +3580,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -3579,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3632,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3685,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3738,12 +3792,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -3805,14 +3859,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F88FE72-617A-43B5-8753-3AC72A1D934B}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G5" sqref="G5"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3835,7 +3889,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3858,7 +3912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3881,7 +3935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3904,7 +3958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3927,7 +3981,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3950,7 +4004,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -3958,7 +4012,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3966,7 +4020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3989,7 +4043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4012,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4035,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4058,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4081,22 +4135,22 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4119,7 +4173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -4142,7 +4196,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4165,7 +4219,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4188,7 +4242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4211,12 +4265,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4239,7 +4293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>105</v>
       </c>

--- a/OrbisGame/Container/Data/Waffen.xlsx
+++ b/OrbisGame/Container/Data/Waffen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B82339A-C792-4B32-B281-68E8ABF9B4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CA7F59-562D-4AE9-9B6A-B367D500CA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
@@ -717,9 +717,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA4670-742C-4871-BCD2-E6FA6AAE7CE2}">
   <dimension ref="A1:AO23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM3" sqref="AM3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1978,13 +1978,13 @@
         <v>0</v>
       </c>
       <c r="U12">
+        <v>50</v>
+      </c>
+      <c r="V12">
         <v>25</v>
       </c>
-      <c r="V12">
-        <v>15</v>
-      </c>
       <c r="W12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -3859,7 +3859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F88FE72-617A-43B5-8753-3AC72A1D934B}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1:B25"/>
     </sheetView>

--- a/OrbisGame/Container/Data/Waffen.xlsx
+++ b/OrbisGame/Container/Data/Waffen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CA7F59-562D-4AE9-9B6A-B367D500CA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EAC1B0-876D-4C1D-B3DE-8ED8CE5EDAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="11880" yWindow="792" windowWidth="8088" windowHeight="8880" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
@@ -719,15 +719,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U13" sqref="U13"/>
+      <selection pane="topRight" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.234375" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -852,7 +852,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -977,7 +977,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1143,13 +1143,13 @@
         <v>0.7</v>
       </c>
       <c r="N4">
+        <v>0.7</v>
+      </c>
+      <c r="O4">
         <v>0.8</v>
       </c>
-      <c r="O4">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="P4">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0.5</v>
@@ -1227,7 +1227,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1277,16 +1277,16 @@
         <v>0.3</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="S5">
         <v>0.3</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1360,13 +1360,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E6">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="M6">
         <v>0.7</v>
@@ -1396,7 +1396,7 @@
         <v>0.1</v>
       </c>
       <c r="O6">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="P6">
         <v>0.25</v>
@@ -1405,10 +1405,10 @@
         <v>0.5</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1594,10 +1594,10 @@
         <v>10</v>
       </c>
       <c r="R9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="S9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="T9" t="s">
         <v>10</v>
@@ -1666,7 +1666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Z15">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AA15">
         <v>100</v>
@@ -2215,7 +2215,7 @@
         <v>30</v>
       </c>
       <c r="AC15">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AD15">
         <v>100</v>
@@ -2224,7 +2224,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -2911,12 +2911,12 @@
       <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.52734375" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3234,12 +3234,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3512,22 +3512,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3792,12 +3792,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -3864,9 +3864,9 @@
       <selection pane="topRight" activeCell="B1" sqref="B1:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4135,22 +4135,22 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4265,12 +4265,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>105</v>
       </c>

--- a/OrbisGame/Container/Data/Waffen.xlsx
+++ b/OrbisGame/Container/Data/Waffen.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EAC1B0-876D-4C1D-B3DE-8ED8CE5EDAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0E89B6-48E2-4728-86F9-A3066573E0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="792" windowWidth="8088" windowHeight="8880" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
     <sheet name="Monsterwaffen" sheetId="40" r:id="rId2"/>
     <sheet name="Customwaffen" sheetId="51" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -718,16 +718,16 @@
   <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R5" sqref="R5"/>
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -852,7 +852,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -977,7 +977,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>0.4</v>
       </c>
       <c r="S6">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -2911,12 +2911,12 @@
       <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3234,12 +3234,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3512,22 +3512,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3792,12 +3792,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -3864,9 +3864,9 @@
       <selection pane="topRight" activeCell="B1" sqref="B1:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4135,22 +4135,22 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4265,12 +4265,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>105</v>
       </c>

--- a/OrbisGame/Container/Data/Waffen.xlsx
+++ b/OrbisGame/Container/Data/Waffen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaspe\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0E89B6-48E2-4728-86F9-A3066573E0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E156EE-8A35-4A65-91B2-4BDEBC6AA334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="13020" yWindow="-144" windowWidth="17280" windowHeight="10536" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -403,7 +401,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -419,7 +417,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -718,16 +716,16 @@
   <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S7" sqref="S7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM18" sqref="AM18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.234375" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -852,7 +850,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -977,7 +975,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1102,7 +1100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1194,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="AE4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF4">
         <v>25</v>
@@ -1227,7 +1225,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1271,7 +1269,7 @@
         <v>0.1</v>
       </c>
       <c r="O5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="P5">
         <v>0.3</v>
@@ -1280,10 +1278,10 @@
         <v>0.6</v>
       </c>
       <c r="R5">
+        <v>0.1</v>
+      </c>
+      <c r="S5">
         <v>0.6</v>
-      </c>
-      <c r="S5">
-        <v>0.3</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -1352,7 +1350,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1402,10 +1400,10 @@
         <v>0.25</v>
       </c>
       <c r="Q6">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R6">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="S6">
         <v>0.8</v>
@@ -1477,7 +1475,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1497,7 +1495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1511,7 +1509,7 @@
         <v>100</v>
       </c>
       <c r="J8">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="X8">
         <v>100</v>
@@ -1541,7 +1539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1666,7 +1664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1791,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1916,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1981,7 +1979,7 @@
         <v>50</v>
       </c>
       <c r="V12">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="W12">
         <v>5</v>
@@ -2041,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2058,7 +2056,7 @@
         <v>0.4</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
         <v>0.05</v>
@@ -2079,7 +2077,7 @@
         <v>0.3</v>
       </c>
       <c r="M13">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N13">
         <v>1.3</v>
@@ -2166,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2195,7 +2193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2224,7 +2222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2232,7 +2230,7 @@
         <v>2</v>
       </c>
       <c r="Z16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA16">
         <v>1</v>
@@ -2244,13 +2242,13 @@
         <v>1</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AE16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2375,7 +2373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2500,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2625,7 +2623,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2750,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2875,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2886,7 +2884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -2911,12 +2909,12 @@
       <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.52734375" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2969,7 +2967,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3022,7 +3020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3075,7 +3073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3128,7 +3126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3181,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3234,12 +3232,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3247,7 +3245,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3300,7 +3298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3353,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3406,7 +3404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3459,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3512,22 +3510,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3580,7 +3578,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -3633,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3686,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3739,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3792,12 +3790,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -3864,9 +3862,9 @@
       <selection pane="topRight" activeCell="B1" sqref="B1:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3889,7 +3887,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3912,7 +3910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3935,7 +3933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3958,7 +3956,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3981,7 +3979,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4004,7 +4002,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -4012,7 +4010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4020,7 +4018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4043,7 +4041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4066,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4089,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4112,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4135,22 +4133,22 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4173,7 +4171,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -4196,7 +4194,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4219,7 +4217,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4242,7 +4240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4265,12 +4263,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4293,7 +4291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>105</v>
       </c>

--- a/OrbisGame/Container/Data/Waffen.xlsx
+++ b/OrbisGame/Container/Data/Waffen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaspe\Dropbox\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E156EE-8A35-4A65-91B2-4BDEBC6AA334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE1D138-2E88-42A7-BE5E-042A9AA2F174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="-144" windowWidth="17280" windowHeight="10536" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
@@ -401,7 +401,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -417,7 +417,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -716,16 +716,16 @@
   <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM18" sqref="AM18"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -850,7 +850,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -975,7 +975,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2164,10 +2164,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
+      <c r="Q14">
+        <v>60</v>
+      </c>
+      <c r="R14">
+        <v>20</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <v>40</v>
+      </c>
       <c r="X14">
         <v>15</v>
       </c>
@@ -2193,7 +2205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2222,7 +2234,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2248,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2373,7 +2385,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2498,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2623,7 +2635,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2748,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2873,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2884,7 +2896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -2909,12 +2921,12 @@
       <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2967,7 +2979,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3020,7 +3032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3073,7 +3085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3126,7 +3138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3179,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3232,12 +3244,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3245,7 +3257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3298,7 +3310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3351,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3404,7 +3416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3457,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3510,22 +3522,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3578,7 +3590,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -3631,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3684,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3737,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3790,12 +3802,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -3862,9 +3874,9 @@
       <selection pane="topRight" activeCell="B1" sqref="B1:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3887,7 +3899,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3910,7 +3922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3933,7 +3945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3956,7 +3968,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3979,7 +3991,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4002,7 +4014,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -4010,7 +4022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4018,7 +4030,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4041,7 +4053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4064,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4087,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4110,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4133,22 +4145,22 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4171,7 +4183,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -4194,7 +4206,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4217,7 +4229,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4240,7 +4252,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4263,12 +4275,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4291,7 +4303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>105</v>
       </c>

--- a/OrbisGame/Container/Data/Waffen.xlsx
+++ b/OrbisGame/Container/Data/Waffen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE1D138-2E88-42A7-BE5E-042A9AA2F174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6058A1B-5F6F-4E90-92C1-A22744F2DCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
@@ -716,16 +716,16 @@
   <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T15" sqref="T15"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.234375" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -850,7 +850,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -975,7 +975,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2164,24 +2164,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
       <c r="Q14">
+        <v>80</v>
+      </c>
+      <c r="R14">
+        <v>30</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
         <v>60</v>
       </c>
-      <c r="R14">
-        <v>20</v>
-      </c>
-      <c r="S14">
-        <v>10</v>
-      </c>
-      <c r="T14">
-        <v>40</v>
-      </c>
       <c r="X14">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="Y14">
         <v>35</v>
@@ -2205,7 +2205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -2921,12 +2921,12 @@
       <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.52734375" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3244,12 +3244,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3522,22 +3522,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3802,12 +3802,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -3874,9 +3874,9 @@
       <selection pane="topRight" activeCell="B1" sqref="B1:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4145,22 +4145,22 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4275,12 +4275,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>105</v>
       </c>

--- a/OrbisGame/Container/Data/Waffen.xlsx
+++ b/OrbisGame/Container/Data/Waffen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6058A1B-5F6F-4E90-92C1-A22744F2DCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB24F04-C5C1-4F7E-B4CA-7225205B121D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="112">
   <si>
     <t>Schwert</t>
   </si>
@@ -360,6 +360,15 @@
   </si>
   <si>
     <t>Werkzeug</t>
+  </si>
+  <si>
+    <t>Kleines Objekt</t>
+  </si>
+  <si>
+    <t>Mittleres Objekt</t>
+  </si>
+  <si>
+    <t>Großes Objekt</t>
   </si>
 </sst>
 </file>
@@ -713,19 +722,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA4670-742C-4871-BCD2-E6FA6AAE7CE2}">
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AR23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X14" sqref="X14"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -820,37 +829,46 @@
         <v>49</v>
       </c>
       <c r="AF1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI1" t="s">
         <v>71</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>66</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>65</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>67</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>69</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>70</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>107</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>72</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -945,13 +963,13 @@
         <v>43</v>
       </c>
       <c r="AF2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="AG2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="AH2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s">
         <v>64</v>
@@ -966,16 +984,25 @@
         <v>64</v>
       </c>
       <c r="AM2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP2" t="s">
         <v>108</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>73</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1073,16 +1100,16 @@
         <v>4</v>
       </c>
       <c r="AG3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH3" t="s">
         <v>21</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>4</v>
       </c>
       <c r="AI3" t="s">
         <v>4</v>
       </c>
       <c r="AJ3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="s">
         <v>4</v>
@@ -1091,16 +1118,25 @@
         <v>4</v>
       </c>
       <c r="AM3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN3" t="s">
         <v>4</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>21</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AR3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1195,37 +1231,46 @@
         <v>3</v>
       </c>
       <c r="AF4">
+        <v>8</v>
+      </c>
+      <c r="AG4">
         <v>25</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
+        <v>45</v>
+      </c>
+      <c r="AI4">
+        <v>25</v>
+      </c>
+      <c r="AJ4">
         <v>8</v>
       </c>
-      <c r="AH4">
+      <c r="AK4">
         <v>20</v>
       </c>
-      <c r="AI4">
+      <c r="AL4">
         <v>4</v>
       </c>
-      <c r="AJ4">
+      <c r="AM4">
         <v>7</v>
       </c>
-      <c r="AK4">
-        <v>10</v>
-      </c>
-      <c r="AL4">
-        <v>10</v>
-      </c>
-      <c r="AM4">
-        <v>10</v>
-      </c>
       <c r="AN4">
+        <v>10</v>
+      </c>
+      <c r="AO4">
+        <v>10</v>
+      </c>
+      <c r="AP4">
+        <v>10</v>
+      </c>
+      <c r="AQ4">
         <v>80</v>
       </c>
-      <c r="AO4">
+      <c r="AR4">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1320,37 +1365,46 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AG5">
         <v>0.1</v>
       </c>
       <c r="AH5">
+        <v>0.05</v>
+      </c>
+      <c r="AI5">
         <v>0.2</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
+        <v>0.1</v>
+      </c>
+      <c r="AK5">
+        <v>0.2</v>
+      </c>
+      <c r="AL5">
         <v>6</v>
       </c>
-      <c r="AJ5">
-        <v>10</v>
-      </c>
-      <c r="AK5">
-        <v>10</v>
-      </c>
-      <c r="AL5">
+      <c r="AM5">
+        <v>10</v>
+      </c>
+      <c r="AN5">
+        <v>10</v>
+      </c>
+      <c r="AO5">
         <v>1</v>
       </c>
-      <c r="AM5">
+      <c r="AP5">
         <v>0.2</v>
       </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1454,28 +1508,37 @@
         <v>0</v>
       </c>
       <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
         <v>0.2</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
       <c r="AM6">
         <v>0</v>
       </c>
       <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
         <v>0.6</v>
       </c>
-      <c r="AO6">
+      <c r="AR6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1491,11 +1554,11 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="AN7">
+      <c r="AQ7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1535,11 +1598,20 @@
       <c r="AE8">
         <v>100</v>
       </c>
-      <c r="AN8">
+      <c r="AF8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AG8">
+        <v>100</v>
+      </c>
+      <c r="AH8">
+        <v>100</v>
+      </c>
+      <c r="AQ8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1663,8 +1735,17 @@
       <c r="AO9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1759,13 +1840,13 @@
         <v>40</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -1780,16 +1861,25 @@
         <v>0</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
         <v>20</v>
       </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1913,8 +2003,17 @@
       <c r="AO11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2038,8 +2137,17 @@
       <c r="AO12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2133,38 +2241,47 @@
       <c r="AE13" s="2">
         <v>2.5</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI13">
         <v>0.4</v>
       </c>
-      <c r="AG13">
+      <c r="AJ13">
         <v>0.1</v>
       </c>
-      <c r="AH13">
+      <c r="AK13">
         <v>0.8</v>
       </c>
-      <c r="AI13">
+      <c r="AL13">
         <v>0.5</v>
       </c>
-      <c r="AJ13">
+      <c r="AM13">
         <v>1</v>
       </c>
-      <c r="AK13">
+      <c r="AN13">
         <v>0.2</v>
       </c>
-      <c r="AL13">
+      <c r="AO13">
         <v>0.2</v>
       </c>
-      <c r="AM13">
+      <c r="AP13">
         <v>0.1</v>
       </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2204,8 +2321,17 @@
       <c r="AE14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AF14">
+        <v>20</v>
+      </c>
+      <c r="AG14">
+        <v>30</v>
+      </c>
+      <c r="AH14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2233,8 +2359,17 @@
       <c r="AE15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AF15">
+        <v>100</v>
+      </c>
+      <c r="AG15">
+        <v>100</v>
+      </c>
+      <c r="AH15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2259,8 +2394,17 @@
       <c r="AE16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2376,16 +2520,25 @@
         <v>61</v>
       </c>
       <c r="AM17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP17" t="s">
         <v>94</v>
       </c>
-      <c r="AN17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AQ17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2501,16 +2654,25 @@
         <v>0</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
         <v>1000</v>
       </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2626,16 +2788,25 @@
         <v>0</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
         <v>50</v>
       </c>
-      <c r="AN19" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AQ19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2751,16 +2922,25 @@
         <v>0</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
         <v>30</v>
       </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2876,34 +3056,43 @@
         <v>0</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
         <v>3</v>
       </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="AN22">
+      <c r="AQ22">
         <v>3</v>
       </c>
-      <c r="AO22">
+      <c r="AR22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="AN23">
+      <c r="AQ23">
         <v>20</v>
       </c>
-      <c r="AO23">
+      <c r="AR23">
         <v>20</v>
       </c>
     </row>
@@ -2921,12 +3110,12 @@
       <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2979,7 +3168,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3032,7 +3221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3085,7 +3274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3138,7 +3327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3191,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3244,12 +3433,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3257,7 +3446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3310,7 +3499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3363,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3416,7 +3605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3469,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3522,22 +3711,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3590,7 +3779,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -3643,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3696,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3749,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3802,12 +3991,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -3874,9 +4063,9 @@
       <selection pane="topRight" activeCell="B1" sqref="B1:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3899,7 +4088,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3922,7 +4111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3945,7 +4134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3968,7 +4157,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3991,7 +4180,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4014,7 +4203,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -4022,7 +4211,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4030,7 +4219,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4053,7 +4242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4076,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4099,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4122,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4145,22 +4334,22 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4183,7 +4372,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -4206,7 +4395,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4229,7 +4418,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4252,7 +4441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4275,12 +4464,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4303,7 +4492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>105</v>
       </c>

--- a/OrbisGame/Container/Data/Waffen.xlsx
+++ b/OrbisGame/Container/Data/Waffen.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB24F04-C5C1-4F7E-B4CA-7225205B121D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61197170-1895-4CF7-815A-05825184298B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
     <sheet name="Monsterwaffen" sheetId="40" r:id="rId2"/>
     <sheet name="Customwaffen" sheetId="51" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="113">
   <si>
     <t>Schwert</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>Großes Objekt</t>
+  </si>
+  <si>
+    <t>Erwachten_kopflosgift</t>
   </si>
 </sst>
 </file>
@@ -714,7 +717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -724,17 +727,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA4670-742C-4871-BCD2-E6FA6AAE7CE2}">
   <dimension ref="A1:AR23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.234375" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -868,7 +871,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1404,7 +1407,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1538,7 +1541,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1745,7 +1748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2013,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2147,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2281,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2331,7 +2334,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2404,7 +2407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2672,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2806,7 +2809,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2940,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -3085,7 +3088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -3103,19 +3106,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121B175B-F00F-47F8-9A7F-F48C1C0BF04B}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O8" sqref="O8"/>
+      <selection pane="topRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.52734375" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="3" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3123,52 +3127,55 @@
         <v>81</v>
       </c>
       <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>82</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>83</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>84</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>88</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>85</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>86</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>76</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>89</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>90</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>92</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>99</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3179,49 +3186,52 @@
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>31</v>
       </c>
       <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>78</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>79</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>76</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>78</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>87</v>
-      </c>
-      <c r="K2" t="s">
-        <v>76</v>
       </c>
       <c r="L2" t="s">
         <v>76</v>
       </c>
       <c r="M2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" t="s">
         <v>91</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>76</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>43</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>96</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3238,19 +3248,19 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
         <v>63</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
       </c>
       <c r="K3" t="s">
         <v>4</v>
@@ -3259,22 +3269,25 @@
         <v>4</v>
       </c>
       <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>21</v>
-      </c>
-      <c r="N3" t="s">
-        <v>4</v>
       </c>
       <c r="O3" t="s">
         <v>4</v>
       </c>
       <c r="P3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3282,52 +3295,55 @@
         <v>10</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>20</v>
-      </c>
-      <c r="D4">
-        <v>40</v>
       </c>
       <c r="E4">
         <v>40</v>
       </c>
       <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4">
         <v>30</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>40</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>20</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>40</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>30</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>25</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>30</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>45</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>8</v>
       </c>
-      <c r="O4">
-        <v>10</v>
-      </c>
       <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
         <v>30</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3338,29 +3354,29 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0.2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>0.2</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>0.3</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.6</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
         <v>0</v>
       </c>
@@ -3379,8 +3395,11 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3388,7 +3407,7 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3397,56 +3416,59 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0.9</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.5</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.2</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.9</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.3</v>
-      </c>
-      <c r="K6">
-        <v>0.9</v>
       </c>
       <c r="L6">
         <v>0.9</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>0.3</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3498,8 +3520,11 @@
       <c r="Q9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="R9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3551,8 +3576,11 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3593,19 +3621,22 @@
         <v>0</v>
       </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>100</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
       <c r="P11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="R11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3657,8 +3688,11 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3699,34 +3733,37 @@
         <v>0</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>0.7</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>4</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3734,52 +3771,55 @@
         <v>75</v>
       </c>
       <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
         <v>75</v>
       </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
         <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" t="s">
         <v>60</v>
       </c>
-      <c r="I17" t="s">
-        <v>61</v>
-      </c>
       <c r="J17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" t="s">
         <v>60</v>
       </c>
-      <c r="K17" t="s">
-        <v>61</v>
-      </c>
       <c r="L17" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" t="s">
         <v>60</v>
       </c>
-      <c r="M17" t="s">
-        <v>61</v>
-      </c>
       <c r="N17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" t="s">
         <v>60</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>94</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>60</v>
       </c>
-      <c r="Q17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="R17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -3790,49 +3830,52 @@
         <v>10000</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E18">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>2000</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>2000</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>2000</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
       <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>15</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>1000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>10000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1000</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3845,47 +3888,50 @@
       <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19">
-        <v>25</v>
+      <c r="E19" t="s">
+        <v>61</v>
       </c>
       <c r="F19">
         <v>25</v>
       </c>
-      <c r="G19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19">
-        <v>10</v>
-      </c>
-      <c r="I19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J19">
+      <c r="G19">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19">
         <v>20</v>
       </c>
-      <c r="K19" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19">
+      <c r="L19" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19">
         <v>25</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>12</v>
       </c>
-      <c r="O19" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19">
-        <v>10</v>
+      <c r="P19" t="s">
+        <v>61</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
+        <v>10</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3893,52 +3939,55 @@
         <v>75</v>
       </c>
       <c r="C20">
+        <v>95</v>
+      </c>
+      <c r="D20">
         <v>70</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
       <c r="E20">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>70</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>98</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>50</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
       <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>50</v>
       </c>
-      <c r="M20" t="s">
-        <v>61</v>
-      </c>
-      <c r="N20">
+      <c r="N20" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20">
         <v>100</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>80</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>100</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3946,57 +3995,60 @@
         <v>3</v>
       </c>
       <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
         <v>3</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
       <c r="E21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>5</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>19</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>5</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O21">
+        <v>10</v>
+      </c>
+      <c r="P21">
         <v>2</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>4</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4004,25 +4056,25 @@
         <v>100</v>
       </c>
       <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
         <v>7</v>
-      </c>
-      <c r="D23">
-        <v>20</v>
       </c>
       <c r="E23">
         <v>20</v>
       </c>
       <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
         <v>100</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>20</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>100</v>
-      </c>
-      <c r="I23">
-        <v>1000</v>
       </c>
       <c r="J23">
         <v>1000</v>
@@ -4037,15 +4089,18 @@
         <v>1000</v>
       </c>
       <c r="N23">
+        <v>1000</v>
+      </c>
+      <c r="O23">
         <v>100</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
       <c r="P23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q23">
+        <v>10</v>
+      </c>
+      <c r="R23">
         <v>10</v>
       </c>
     </row>
@@ -4063,9 +4118,9 @@
       <selection pane="topRight" activeCell="B1" sqref="B1:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -4088,7 +4143,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4111,7 +4166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4134,7 +4189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4157,7 +4212,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4180,7 +4235,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4203,7 +4258,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -4211,7 +4266,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4219,7 +4274,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4242,7 +4297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4265,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4288,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4311,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4334,22 +4389,22 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4372,7 +4427,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -4395,7 +4450,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4418,7 +4473,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4441,7 +4496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4464,12 +4519,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4492,7 +4547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>105</v>
       </c>

--- a/OrbisGame/Container/Data/Waffen.xlsx
+++ b/OrbisGame/Container/Data/Waffen.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61197170-1895-4CF7-815A-05825184298B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3C3D16-1280-4F34-BD88-C6C60467F888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
     <sheet name="Monsterwaffen" sheetId="40" r:id="rId2"/>
     <sheet name="Customwaffen" sheetId="51" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="116">
   <si>
     <t>Schwert</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Ja</t>
   </si>
   <si>
-    <t>Bogen</t>
-  </si>
-  <si>
     <t>Fernwaffe</t>
   </si>
   <si>
@@ -372,6 +369,18 @@
   </si>
   <si>
     <t>Erwachten_kopflosgift</t>
+  </si>
+  <si>
+    <t>Crätpranke</t>
+  </si>
+  <si>
+    <t>Kurzbogen</t>
+  </si>
+  <si>
+    <t>Langbogen</t>
+  </si>
+  <si>
+    <t>Gesetz des Reichen</t>
   </si>
 </sst>
 </file>
@@ -717,7 +726,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -725,11 +734,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA4670-742C-4871-BCD2-E6FA6AAE7CE2}">
-  <dimension ref="A1:AR23"/>
+  <dimension ref="A1:AS23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA29" sqref="AA29"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,9 +746,9 @@
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -757,121 +766,124 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="H1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" t="s">
-        <v>106</v>
-      </c>
-      <c r="V1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" t="s">
         <v>47</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>50</v>
       </c>
       <c r="AE1" t="s">
         <v>49</v>
       </c>
       <c r="AF1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH1" t="s">
         <v>109</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>110</v>
       </c>
-      <c r="AH1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>71</v>
-      </c>
       <c r="AJ1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AK1" t="s">
         <v>65</v>
       </c>
       <c r="AL1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN1" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>68</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ1" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AR1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -891,121 +903,124 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="V2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="Y2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AD2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AI2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AL2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AM2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AO2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AP2" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="AQ2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AR2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1025,37 +1040,37 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="R3" t="s">
         <v>4</v>
@@ -1079,22 +1094,22 @@
         <v>4</v>
       </c>
       <c r="Y3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="Z3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="s">
         <v>4</v>
       </c>
       <c r="AB3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AC3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="s">
         <v>4</v>
@@ -1103,28 +1118,28 @@
         <v>4</v>
       </c>
       <c r="AG3" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="AH3" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="AI3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>4</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>21</v>
-      </c>
       <c r="AK3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="s">
         <v>4</v>
       </c>
       <c r="AM3" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="AN3" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="AO3" t="s">
         <v>4</v>
@@ -1133,13 +1148,16 @@
         <v>4</v>
       </c>
       <c r="AQ3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AR3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1162,104 +1180,104 @@
         <v>1</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>1.5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.8</v>
-      </c>
-      <c r="M4">
-        <v>0.7</v>
       </c>
       <c r="N4">
         <v>0.7</v>
       </c>
       <c r="O4">
+        <v>0.7</v>
+      </c>
+      <c r="P4">
         <v>0.8</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.5</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.6</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.8</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>0.35</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0.75</v>
       </c>
-      <c r="X4">
-        <v>10</v>
-      </c>
       <c r="Y4">
+        <v>10</v>
+      </c>
+      <c r="Z4">
         <v>17</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>8</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
       </c>
       <c r="AB4">
         <v>1</v>
       </c>
       <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
         <v>22</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>1</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>3</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>8</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>25</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>45</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>25</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>8</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>20</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>4</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>7</v>
       </c>
-      <c r="AN4">
-        <v>10</v>
-      </c>
       <c r="AO4">
         <v>10</v>
       </c>
@@ -1267,13 +1285,16 @@
         <v>10</v>
       </c>
       <c r="AQ4">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="AR4">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1296,47 +1317,47 @@
         <v>0.35</v>
       </c>
       <c r="H5">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="I5">
         <v>0.15</v>
       </c>
       <c r="J5">
+        <v>0.15</v>
+      </c>
+      <c r="K5">
         <v>0.2</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.4</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.3</v>
-      </c>
-      <c r="M5">
-        <v>0.1</v>
       </c>
       <c r="N5">
         <v>0.1</v>
       </c>
       <c r="O5">
+        <v>0.1</v>
+      </c>
+      <c r="P5">
         <v>0.2</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.3</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.6</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.1</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.6</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
       <c r="V5">
         <v>0</v>
       </c>
@@ -1347,67 +1368,70 @@
         <v>0</v>
       </c>
       <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
         <v>0.3</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>0.2</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
         <v>0.2</v>
       </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
         <v>0.3</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>0.1</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>0.05</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>0.2</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>0.1</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>0.2</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>6</v>
       </c>
-      <c r="AM5">
-        <v>10</v>
-      </c>
       <c r="AN5">
         <v>10</v>
       </c>
       <c r="AO5">
+        <v>10</v>
+      </c>
+      <c r="AP5">
         <v>1</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>0.2</v>
       </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
       <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1436,38 +1460,38 @@
         <v>0</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>0.9</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>0.4</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.7</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.1</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.35</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.25</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.3</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.7</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.8</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
         <v>0</v>
       </c>
@@ -1481,23 +1505,23 @@
         <v>0</v>
       </c>
       <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
         <v>0.4</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>0.3</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
         <v>0.7</v>
       </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
       <c r="AE6">
         <v>0</v>
       </c>
@@ -1520,11 +1544,11 @@
         <v>0</v>
       </c>
       <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
         <v>0.2</v>
       </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
       <c r="AN6">
         <v>0</v>
       </c>
@@ -1535,33 +1559,39 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AR6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I7">
         <v>50</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
+        <v>50</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1577,7 +1607,7 @@
       <c r="J8">
         <v>100</v>
       </c>
-      <c r="X8">
+      <c r="K8">
         <v>100</v>
       </c>
       <c r="Y8">
@@ -1610,11 +1640,14 @@
       <c r="AH8">
         <v>100</v>
       </c>
-      <c r="AQ8">
+      <c r="AI8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AR8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1667,13 +1700,13 @@
         <v>10</v>
       </c>
       <c r="R9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="S9" t="s">
         <v>18</v>
       </c>
       <c r="T9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="U9" t="s">
         <v>10</v>
@@ -1747,8 +1780,11 @@
       <c r="AR9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1786,11 +1822,11 @@
         <v>0</v>
       </c>
       <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>30</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
       <c r="O10">
         <v>0</v>
       </c>
@@ -1798,20 +1834,20 @@
         <v>0</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>75</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>50</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
       <c r="V10">
         <v>0</v>
       </c>
@@ -1819,11 +1855,11 @@
         <v>0</v>
       </c>
       <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
         <v>40</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
       <c r="Z10">
         <v>0</v>
       </c>
@@ -1840,19 +1876,19 @@
         <v>0</v>
       </c>
       <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
         <v>40</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>30</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>20</v>
       </c>
-      <c r="AH10">
-        <v>10</v>
-      </c>
       <c r="AI10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1873,16 +1909,19 @@
         <v>0</v>
       </c>
       <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
         <v>20</v>
       </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
       <c r="AR10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1908,11 +1947,11 @@
         <v>0</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>50</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
         <v>0</v>
       </c>
@@ -1932,20 +1971,20 @@
         <v>0</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>90</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>70</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
       <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <v>100</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
       <c r="V11">
         <v>0</v>
       </c>
@@ -1971,11 +2010,11 @@
         <v>0</v>
       </c>
       <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
         <v>100</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
       <c r="AF11">
         <v>0</v>
       </c>
@@ -2015,8 +2054,11 @@
       <c r="AR11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2078,17 +2120,17 @@
         <v>0</v>
       </c>
       <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
         <v>50</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>30</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>5</v>
       </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
       <c r="Y12">
         <v>0</v>
       </c>
@@ -2149,10 +2191,13 @@
       <c r="AR12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>0.2</v>
@@ -2182,25 +2227,25 @@
         <v>0.05</v>
       </c>
       <c r="K13">
+        <v>0.05</v>
+      </c>
+      <c r="L13">
         <v>0.2</v>
-      </c>
-      <c r="L13">
-        <v>0.3</v>
       </c>
       <c r="M13">
         <v>0.3</v>
       </c>
       <c r="N13">
+        <v>0.3</v>
+      </c>
+      <c r="O13">
         <v>1.3</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>0.7</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>0.5</v>
-      </c>
-      <c r="Q13">
-        <v>0.1</v>
       </c>
       <c r="R13">
         <v>0.1</v>
@@ -2209,19 +2254,19 @@
         <v>0.1</v>
       </c>
       <c r="T13">
+        <v>0.1</v>
+      </c>
+      <c r="U13">
         <v>1</v>
-      </c>
-      <c r="U13">
-        <v>0.5</v>
       </c>
       <c r="V13">
         <v>0.5</v>
       </c>
       <c r="W13">
+        <v>0.5</v>
+      </c>
+      <c r="X13">
         <v>0.3</v>
-      </c>
-      <c r="X13" s="2">
-        <v>2.5</v>
       </c>
       <c r="Y13" s="2">
         <v>2.5</v>
@@ -2248,116 +2293,116 @@
         <v>2.5</v>
       </c>
       <c r="AG13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AH13" s="2">
         <v>1.3</v>
       </c>
-      <c r="AH13" s="2">
+      <c r="AI13" s="2">
         <v>1</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>0.4</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>0.1</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>0.8</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>0.5</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>1</v>
-      </c>
-      <c r="AN13">
-        <v>0.2</v>
       </c>
       <c r="AO13">
         <v>0.2</v>
       </c>
       <c r="AP13">
+        <v>0.2</v>
+      </c>
+      <c r="AQ13">
         <v>0.1</v>
       </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
       <c r="AR13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q14">
+        <v>41</v>
+      </c>
+      <c r="R14">
         <v>80</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>30</v>
       </c>
-      <c r="S14">
-        <v>10</v>
-      </c>
       <c r="T14">
-        <v>60</v>
-      </c>
-      <c r="X14">
+        <v>10</v>
+      </c>
+      <c r="U14">
         <v>60</v>
       </c>
       <c r="Y14">
+        <v>60</v>
+      </c>
+      <c r="Z14">
         <v>35</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>15</v>
-      </c>
-      <c r="AA14">
-        <v>100</v>
       </c>
       <c r="AB14">
         <v>100</v>
       </c>
       <c r="AC14">
+        <v>100</v>
+      </c>
+      <c r="AD14">
         <v>30</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>70</v>
       </c>
-      <c r="AE14">
-        <v>10</v>
-      </c>
       <c r="AF14">
+        <v>10</v>
+      </c>
+      <c r="AG14">
         <v>20</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>30</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Y15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z15">
+        <v>10</v>
+      </c>
+      <c r="AA15">
         <v>30</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>100</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>30</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>40</v>
-      </c>
-      <c r="AD15">
-        <v>100</v>
       </c>
       <c r="AE15">
         <v>100</v>
@@ -2371,19 +2416,19 @@
       <c r="AH15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AI15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y16">
+        <v>39</v>
+      </c>
+      <c r="Z16">
         <v>2</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>5</v>
-      </c>
-      <c r="AA16">
-        <v>1</v>
       </c>
       <c r="AB16">
         <v>1</v>
@@ -2392,10 +2437,10 @@
         <v>1</v>
       </c>
       <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
         <v>20</v>
-      </c>
-      <c r="AE16">
-        <v>1</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -2406,696 +2451,714 @@
       <c r="AH16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AI16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R17" t="s">
+        <v>60</v>
+      </c>
+      <c r="S17" t="s">
+        <v>60</v>
+      </c>
+      <c r="T17" t="s">
+        <v>60</v>
+      </c>
+      <c r="U17" t="s">
+        <v>60</v>
+      </c>
+      <c r="V17" t="s">
+        <v>60</v>
+      </c>
+      <c r="W17" t="s">
+        <v>60</v>
+      </c>
+      <c r="X17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>1000</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>50</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>30</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>3</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" t="s">
-        <v>61</v>
-      </c>
-      <c r="M17" t="s">
-        <v>61</v>
-      </c>
-      <c r="N17" t="s">
-        <v>61</v>
-      </c>
-      <c r="O17" t="s">
-        <v>61</v>
-      </c>
-      <c r="P17" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T17" t="s">
-        <v>61</v>
-      </c>
-      <c r="U17" t="s">
-        <v>61</v>
-      </c>
-      <c r="V17" t="s">
-        <v>61</v>
-      </c>
-      <c r="W17" t="s">
-        <v>61</v>
-      </c>
-      <c r="X17" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>1000</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>0</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>50</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>30</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
+      <c r="AR22">
         <v>3</v>
       </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ22">
-        <v>3</v>
-      </c>
-      <c r="AR22">
+      <c r="AS22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ23">
+        <v>53</v>
+      </c>
+      <c r="AR23">
         <v>20</v>
       </c>
-      <c r="AR23">
+      <c r="AS23">
         <v>20</v>
       </c>
     </row>
@@ -3108,7 +3171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121B175B-F00F-47F8-9A7F-F48C1C0BF04B}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I16" sqref="I16"/>
     </sheetView>
@@ -3121,58 +3184,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>82</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>83</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" t="s">
         <v>84</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" t="s">
         <v>88</v>
       </c>
-      <c r="J1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>89</v>
       </c>
-      <c r="N1" t="s">
-        <v>90</v>
-      </c>
       <c r="O1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" t="s">
-        <v>100</v>
-      </c>
       <c r="R1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -3180,52 +3243,52 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
         <v>78</v>
       </c>
-      <c r="H2" t="s">
-        <v>79</v>
-      </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R2" t="s">
         <v>2</v>
@@ -3251,16 +3314,16 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
         <v>4</v>
@@ -3272,7 +3335,7 @@
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
         <v>4</v>
@@ -3281,7 +3344,7 @@
         <v>4</v>
       </c>
       <c r="Q3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R3" t="s">
         <v>4</v>
@@ -3457,7 +3520,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3694,7 +3757,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3750,78 +3813,78 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>10000</v>
@@ -3877,19 +3940,19 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19">
         <v>25</v>
@@ -3898,19 +3961,19 @@
         <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19">
         <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K19">
         <v>20</v>
       </c>
       <c r="L19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M19">
         <v>25</v>
@@ -3922,7 +3985,7 @@
         <v>12</v>
       </c>
       <c r="P19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -3933,7 +3996,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>75</v>
@@ -3972,7 +4035,7 @@
         <v>50</v>
       </c>
       <c r="N20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20">
         <v>100</v>
@@ -3989,7 +4052,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -4045,12 +4108,12 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>100</v>
@@ -4111,39 +4174,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F88FE72-617A-43B5-8753-3AC72A1D934B}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:B25"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4157,7 +4229,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -4165,8 +4237,14 @@
       <c r="G2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4188,8 +4266,14 @@
       <c r="G3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4211,8 +4295,14 @@
       <c r="G4">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>45</v>
+      </c>
+      <c r="I4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4234,8 +4324,14 @@
       <c r="G5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4257,24 +4353,36 @@
       <c r="G6">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="E8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4296,8 +4404,14 @@
       <c r="G9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4319,8 +4433,14 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>0.3</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4342,8 +4462,14 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4365,10 +4491,16 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>0.2</v>
@@ -4388,48 +4520,60 @@
       <c r="G13">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>56</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4449,10 +4593,16 @@
       <c r="G18">
         <v>1000</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>1000</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4472,10 +4622,16 @@
       <c r="G19">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>0.06</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4495,10 +4651,16 @@
       <c r="G20">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>60</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4518,15 +4680,21 @@
       <c r="G21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -4546,10 +4714,16 @@
       <c r="G23">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -4561,13 +4735,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
